--- a/scimagojr/scimagojr_2020.xlsx
+++ b/scimagojr/scimagojr_2020.xlsx
@@ -95,15 +95,15 @@
     <t>Spain</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -140,27 +140,27 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>Africa/Middle East</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -188,24 +188,24 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
@@ -278,12 +278,12 @@
     <t>Lithuania</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -299,6 +299,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -311,21 +314,18 @@
     <t>Macao</t>
   </si>
   <si>
-    <t>Belarus</t>
+    <t>Cuba</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>Uganda</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -338,15 +338,15 @@
     <t>Uruguay</t>
   </si>
   <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
@@ -356,18 +356,18 @@
     <t>Sudan</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -377,12 +377,12 @@
     <t>Yemen</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -407,63 +407,63 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Democratic Republic Congo</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -476,19 +476,28 @@
     <t>Honduras</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Gambia</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -497,81 +506,75 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Togo</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>North Korea</t>
   </si>
   <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Niger</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
     <t>Barbados</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>French Guiana</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>Haïti</t>
   </si>
   <si>
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Greenland</t>
+  </si>
+  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
@@ -584,108 +587,108 @@
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>Guam</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
-    <t>Reunion</t>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
   </si>
   <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
     <t>Timor-Leste</t>
   </si>
   <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
     <t>Djibouti</t>
   </si>
   <si>
-    <t>Curaçao</t>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Andorra</t>
   </si>
   <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -698,79 +701,76 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Mayotte</t>
   </si>
   <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
     <t>Nauru</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Sint Maarten</t>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Martin (Dutch)</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t>Niue</t>
   </si>
   <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
     <t>Tokelau</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
   </si>
 </sst>
 </file>
@@ -914,22 +914,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>771730</v>
+        <v>790577</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>751978</v>
+        <v>772603</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4037226</v>
+        <v>11769091</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2356381</v>
+        <v>7332592</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>5.23</v>
+        <v>14.89</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -943,22 +943,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>700795</v>
+        <v>727579</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>620983</v>
+        <v>631100</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3759736</v>
+        <v>10890303</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1505690</v>
+        <v>3927532</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>5.36</v>
+        <v>14.97</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -972,22 +972,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>224504</v>
+        <v>232571</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>194875</v>
+        <v>196920</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1438061</v>
+        <v>3968912</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>328116</v>
+        <v>776687</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>6.41</v>
+        <v>17.07</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -1001,22 +1001,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>212665</v>
+        <v>221215</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>194185</v>
+        <v>196036</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>712942</v>
+        <v>2157752</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>270343</v>
+        <v>807626</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3.35</v>
+        <v>9.75</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1030,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>194585</v>
+        <v>198705</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>175034</v>
+        <v>177624</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1054272</v>
+        <v>2917431</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>268110</v>
+        <v>638092</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>5.42</v>
+        <v>14.68</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1059,22 +1059,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>145383</v>
+        <v>149386</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>128242</v>
+        <v>130255</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>913603</v>
+        <v>2357929</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>260442</v>
+        <v>569659</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>6.28</v>
+        <v>15.78</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1088,22 +1088,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>137913</v>
+        <v>140443</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>128322</v>
+        <v>130141</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>543528</v>
+        <v>1531483</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>134502</v>
+        <v>325693</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.94</v>
+        <v>10.9</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1117,22 +1117,22 @@
         <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>128017</v>
+        <v>133884</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>123440</v>
+        <v>128840</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>288012</v>
+        <v>720635</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>118760</v>
+        <v>271453</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.25</v>
+        <v>5.38</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1146,22 +1146,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>124872</v>
+        <v>127457</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>113252</v>
+        <v>114953</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>698993</v>
+        <v>1881715</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>133657</v>
+        <v>313160</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>5.6</v>
+        <v>14.76</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1175,22 +1175,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>121111</v>
+        <v>124269</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>108579</v>
+        <v>109849</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>718279</v>
+        <v>2057695</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>127783</v>
+        <v>313122</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>5.93</v>
+        <v>16.56</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1204,22 +1204,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>115990</v>
+        <v>119304</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>103268</v>
+        <v>104136</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>760532</v>
+        <v>2206234</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>147920</v>
+        <v>358922</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>6.56</v>
+        <v>18.49</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1233,22 +1233,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>113503</v>
+        <v>116831</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>104114</v>
+        <v>106218</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>613182</v>
+        <v>1678055</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>138549</v>
+        <v>322912</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>5.4</v>
+        <v>14.36</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1259,25 +1259,25 @@
         <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>95511</v>
+        <v>97776</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>91546</v>
+        <v>91304</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>455028</v>
+        <v>963377</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>98454</v>
+        <v>249439</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4.76</v>
+        <v>9.85</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1285,28 +1285,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>94965</v>
+        <v>96408</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>89263</v>
+        <v>92664</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>336374</v>
+        <v>1357394</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>94163</v>
+        <v>237722</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.54</v>
+        <v>14.08</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1320,22 +1320,22 @@
         <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>71894</v>
+        <v>73606</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>68943</v>
+        <v>70552</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>355990</v>
+        <v>988134</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>115629</v>
+        <v>264638</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4.95</v>
+        <v>13.42</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1349,22 +1349,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>68004</v>
+        <v>69463</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>61209</v>
+        <v>61913</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>481564</v>
+        <v>1334373</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>74069</v>
+        <v>176449</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>7.08</v>
+        <v>19.21</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1378,22 +1378,22 @@
         <v>20</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>57228</v>
+        <v>60058</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>53705</v>
+        <v>56083</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>236423</v>
+        <v>646588</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>60988</v>
+        <v>136249</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.13</v>
+        <v>10.77</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1407,22 +1407,22 @@
         <v>30</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>56487</v>
+        <v>59144</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>52264</v>
+        <v>53867</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>226017</v>
+        <v>639951</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>51554</v>
+        <v>127602</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4</v>
+        <v>10.82</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1436,22 +1436,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>53075</v>
+        <v>54192</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>47564</v>
+        <v>48306</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>391814</v>
+        <v>1072183</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>56255</v>
+        <v>130980</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>7.38</v>
+        <v>19.78</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1465,22 +1465,22 @@
         <v>10</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>50965</v>
+        <v>53226</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>50125</v>
+        <v>52032</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>78319</v>
+        <v>241159</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>33656</v>
+        <v>91311</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.54</v>
+        <v>4.53</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1494,22 +1494,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>46560</v>
+        <v>47239</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>42625</v>
+        <v>42982</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>306115</v>
+        <v>839216</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>44339</v>
+        <v>105118</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>6.57</v>
+        <v>17.77</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1523,22 +1523,22 @@
         <v>10</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>41610</v>
+        <v>41491</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>39289</v>
+        <v>39310</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>200870</v>
+        <v>574463</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>36298</v>
+        <v>81490</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.83</v>
+        <v>13.85</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1552,22 +1552,22 @@
         <v>10</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>38940</v>
+        <v>39450</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>37035</v>
+        <v>37064</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>149483</v>
+        <v>467097</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>38475</v>
+        <v>94108</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.84</v>
+        <v>11.84</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1581,22 +1581,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>37647</v>
+        <v>38633</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>34075</v>
+        <v>34641</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>259697</v>
+        <v>705438</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>34864</v>
+        <v>78706</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>6.9</v>
+        <v>18.26</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1610,22 +1610,22 @@
         <v>30</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>37564</v>
+        <v>37964</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>36059</v>
+        <v>36275</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>244895</v>
+        <v>676133</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>62688</v>
+        <v>140875</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>6.52</v>
+        <v>17.81</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1639,22 +1639,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>32324</v>
+        <v>33524</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>29453</v>
+        <v>29727</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>235881</v>
+        <v>478016</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>31874</v>
+        <v>67762</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>7.3</v>
+        <v>14.26</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>900</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1668,22 +1668,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>32086</v>
+        <v>33249</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>29135</v>
+        <v>30017</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>169573</v>
+        <v>649050</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>27828</v>
+        <v>75785</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>5.28</v>
+        <v>19.52</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>599</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1697,22 +1697,22 @@
         <v>44</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>31786</v>
+        <v>32329</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>30536</v>
+        <v>31017</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>170818</v>
+        <v>464306</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>52379</v>
+        <v>118699</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>5.37</v>
+        <v>14.36</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1723,25 +1723,25 @@
         <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>31215</v>
+        <v>32110</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>29017</v>
+        <v>28505</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>118002</v>
+        <v>424659</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>20541</v>
+        <v>73654</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3.78</v>
+        <v>13.23</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1749,28 +1749,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>30816</v>
+        <v>31739</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>28134</v>
+        <v>29121</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>146580</v>
+        <v>326628</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>29856</v>
+        <v>52073</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>4.76</v>
+        <v>10.29</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1784,22 +1784,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>30334</v>
+        <v>31050</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>27325</v>
+        <v>27729</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>194362</v>
+        <v>513497</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>26134</v>
+        <v>58478</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>6.41</v>
+        <v>16.54</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1813,22 +1813,22 @@
         <v>10</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>29712</v>
+        <v>30890</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>28335</v>
+        <v>29230</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>165850</v>
+        <v>484977</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>51656</v>
+        <v>121023</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>5.58</v>
+        <v>15.7</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1842,22 +1842,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>27317</v>
+        <v>27829</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>25022</v>
+        <v>25205</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>168968</v>
+        <v>468675</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>23749</v>
+        <v>56622</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6.19</v>
+        <v>16.84</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1871,22 +1871,22 @@
         <v>20</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>26778</v>
+        <v>27365</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>25294</v>
+        <v>25751</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>122055</v>
+        <v>317105</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>21303</v>
+        <v>47222</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>4.56</v>
+        <v>11.59</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1900,22 +1900,22 @@
         <v>10</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>25521</v>
+        <v>26014</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>23715</v>
+        <v>23322</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>256059</v>
+        <v>647896</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>27068</v>
+        <v>56228</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>10.03</v>
+        <v>24.91</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>687</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1929,22 +1929,22 @@
         <v>10</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>25511</v>
+        <v>25782</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>23115</v>
+        <v>23778</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>230645</v>
+        <v>679837</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>26113</v>
+        <v>63366</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>9.04</v>
+        <v>26.37</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1958,22 +1958,22 @@
         <v>30</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>24559</v>
+        <v>25250</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>22352</v>
+        <v>22490</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>146259</v>
+        <v>388638</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>18859</v>
+        <v>44884</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>5.96</v>
+        <v>15.39</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1987,22 +1987,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>23535</v>
+        <v>24068</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>21533</v>
+        <v>21750</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>156172</v>
+        <v>431225</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>21313</v>
+        <v>50831</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>6.64</v>
+        <v>17.92</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2016,22 +2016,22 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>22966</v>
+        <v>23820</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>20304</v>
+        <v>20686</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>140458</v>
+        <v>367177</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>21512</v>
+        <v>48395</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>6.12</v>
+        <v>15.41</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2042,25 +2042,25 @@
         <v>57</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>21970</v>
+        <v>22242</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>20928</v>
+        <v>21234</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>83291</v>
+        <v>119805</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>16396</v>
+        <v>49571</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>3.79</v>
+        <v>5.39</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2071,25 +2071,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>19889</v>
+        <v>22232</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>19093</v>
+        <v>21096</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>49860</v>
+        <v>242131</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>20847</v>
+        <v>40989</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>2.51</v>
+        <v>10.89</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>323</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2103,22 +2103,22 @@
         <v>30</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>19131</v>
+        <v>19303</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>18833</v>
+        <v>18997</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>48142</v>
+        <v>136217</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>16827</v>
+        <v>42503</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2.52</v>
+        <v>7.06</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2129,25 +2129,25 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>18406</v>
+        <v>18927</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>17345</v>
+        <v>17704</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>83991</v>
+        <v>225518</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>16071</v>
+        <v>38530</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>4.56</v>
+        <v>11.92</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2158,25 +2158,25 @@
         <v>61</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>18332</v>
+        <v>18869</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>16484</v>
+        <v>16374</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>104004</v>
+        <v>330670</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>14734</v>
+        <v>31895</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>5.67</v>
+        <v>17.52</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2187,25 +2187,25 @@
         <v>62</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>18230</v>
+        <v>18717</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>16168</v>
+        <v>16613</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>120647</v>
+        <v>297766</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>14279</v>
+        <v>34049</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>6.62</v>
+        <v>15.91</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>628</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2219,22 +2219,22 @@
         <v>10</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>18155</v>
+        <v>18293</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>17322</v>
+        <v>17424</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>114357</v>
+        <v>300270</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>24323</v>
+        <v>43924</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>6.3</v>
+        <v>16.41</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2248,22 +2248,22 @@
         <v>20</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>17251</v>
+        <v>18197</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>16241</v>
+        <v>16919</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>73527</v>
+        <v>188988</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>13316</v>
+        <v>29788</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>4.26</v>
+        <v>10.39</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2274,25 +2274,25 @@
         <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>17026</v>
+        <v>17825</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>15823</v>
+        <v>16387</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>70451</v>
+        <v>199991</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>11005</v>
+        <v>28204</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>4.14</v>
+        <v>11.22</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2303,25 +2303,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>16439</v>
+        <v>17108</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>15379</v>
+        <v>15973</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>58524</v>
+        <v>158210</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10413</v>
+        <v>24284</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>3.56</v>
+        <v>9.25</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2332,25 +2332,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>14197</v>
+        <v>15117</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>13406</v>
+        <v>13973</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>50926</v>
+        <v>155177</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>13164</v>
+        <v>33167</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>3.59</v>
+        <v>10.27</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2364,22 +2364,22 @@
         <v>20</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>13220</v>
+        <v>13726</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>12349</v>
+        <v>12722</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>72652</v>
+        <v>187648</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>9988</v>
+        <v>23733</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>5.5</v>
+        <v>13.67</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2393,22 +2393,22 @@
         <v>30</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>10793</v>
+        <v>11081</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>10030</v>
+        <v>10079</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>61209</v>
+        <v>183684</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>9021</v>
+        <v>21053</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>5.67</v>
+        <v>16.58</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2419,25 +2419,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>10057</v>
+        <v>10291</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>9493</v>
+        <v>9593</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>38091</v>
+        <v>103477</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>9377</v>
+        <v>25695</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>3.79</v>
+        <v>10.06</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2451,22 +2451,22 @@
         <v>20</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>9678</v>
+        <v>10007</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>9214</v>
+        <v>9486</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>36808</v>
+        <v>90787</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>6561</v>
+        <v>15204</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>3.8</v>
+        <v>9.07</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2480,22 +2480,22 @@
         <v>10</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>9130</v>
+        <v>9456</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>8570</v>
+        <v>8718</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>51291</v>
+        <v>153226</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>13333</v>
+        <v>29378</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>5.62</v>
+        <v>16.2</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2509,22 +2509,22 @@
         <v>20</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>8642</v>
+        <v>8965</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>8087</v>
+        <v>8309</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>40252</v>
+        <v>100570</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>5522</v>
+        <v>12799</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>4.66</v>
+        <v>11.22</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2538,22 +2538,22 @@
         <v>20</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>8582</v>
+        <v>8888</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>8007</v>
+        <v>8184</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>41728</v>
+        <v>104996</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>5529</v>
+        <v>13922</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>4.86</v>
+        <v>11.81</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2564,25 +2564,25 @@
         <v>75</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>8523</v>
+        <v>8640</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>8152</v>
+        <v>8199</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>34570</v>
+        <v>89279</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>5322</v>
+        <v>13274</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>4.06</v>
+        <v>10.33</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2593,25 +2593,25 @@
         <v>76</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>8390</v>
+        <v>8542</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>8107</v>
+        <v>8206</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>33418</v>
+        <v>84212</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>6660</v>
+        <v>16258</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>3.98</v>
+        <v>9.86</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2625,22 +2625,22 @@
         <v>20</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>7483</v>
+        <v>7748</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>7003</v>
+        <v>7143</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>47285</v>
+        <v>106631</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>5198</v>
+        <v>11557</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>6.32</v>
+        <v>13.76</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2654,22 +2654,22 @@
         <v>20</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>7058</v>
+        <v>7445</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>6684</v>
+        <v>6991</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>27548</v>
+        <v>62179</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3565</v>
+        <v>8625</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>3.9</v>
+        <v>8.35</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2683,22 +2683,22 @@
         <v>30</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>6615</v>
+        <v>6724</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>6412</v>
+        <v>6475</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>29012</v>
+        <v>86781</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>5245</v>
+        <v>14316</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>4.39</v>
+        <v>12.91</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2709,25 +2709,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>6520</v>
+        <v>6668</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>6286</v>
+        <v>6442</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>24834</v>
+        <v>83698</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>6019</v>
+        <v>20176</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>3.81</v>
+        <v>12.55</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2738,25 +2738,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>6009</v>
+        <v>6584</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>5541</v>
+        <v>6012</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>22140</v>
+        <v>59302</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3453</v>
+        <v>9899</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>3.68</v>
+        <v>9.01</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2770,22 +2770,22 @@
         <v>10</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>5994</v>
+        <v>6136</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>5657</v>
+        <v>5758</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>21441</v>
+        <v>62567</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3220</v>
+        <v>8270</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>3.58</v>
+        <v>10.2</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2796,25 +2796,25 @@
         <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>5934</v>
+        <v>6125</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>5686</v>
+        <v>5809</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>18850</v>
+        <v>50404</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3983</v>
+        <v>8789</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>3.18</v>
+        <v>8.23</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2828,22 +2828,22 @@
         <v>10</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>5684</v>
+        <v>5843</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>5504</v>
+        <v>5639</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>19539</v>
+        <v>44778</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3475</v>
+        <v>8719</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>3.44</v>
+        <v>7.66</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2857,22 +2857,22 @@
         <v>30</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>5384</v>
+        <v>5476</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>5049</v>
+        <v>5098</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>40385</v>
+        <v>118129</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>5530</v>
+        <v>10906</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>7.5</v>
+        <v>21.57</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2886,22 +2886,22 @@
         <v>20</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>5094</v>
+        <v>5370</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>4826</v>
+        <v>4988</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>28144</v>
+        <v>66968</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3398</v>
+        <v>7786</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>5.52</v>
+        <v>12.47</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2912,25 +2912,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>4540</v>
+        <v>4640</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>4165</v>
+        <v>4248</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>29156</v>
+        <v>68909</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2710</v>
+        <v>9008</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>6.42</v>
+        <v>14.85</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>264</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2941,25 +2941,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>4454</v>
+        <v>4578</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>4125</v>
+        <v>4180</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>22724</v>
+        <v>70570</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>3448</v>
+        <v>6402</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>5.1</v>
+        <v>15.42</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2970,25 +2970,25 @@
         <v>89</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>4346</v>
+        <v>4492</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>4102</v>
+        <v>4173</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>18565</v>
+        <v>57288</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>3187</v>
+        <v>9294</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>4.27</v>
+        <v>12.75</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -3002,22 +3002,22 @@
         <v>20</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>4121</v>
+        <v>4167</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>3832</v>
+        <v>3878</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>40117</v>
+        <v>80450</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3384</v>
+        <v>7431</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>9.73</v>
+        <v>19.31</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3031,22 +3031,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>3964</v>
+        <v>4093</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>3628</v>
+        <v>3664</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>29297</v>
+        <v>70219</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2630</v>
+        <v>5869</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>7.39</v>
+        <v>17.16</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3060,22 +3060,22 @@
         <v>10</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>3486</v>
+        <v>3447</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>3456</v>
+        <v>3405</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>7188</v>
+        <v>19012</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>4607</v>
+        <v>11573</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>2.06</v>
+        <v>5.52</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3089,22 +3089,22 @@
         <v>10</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>3186</v>
+        <v>3315</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2918</v>
+        <v>2952</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>13061</v>
+        <v>39940</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1735</v>
+        <v>4357</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>4.1</v>
+        <v>12.05</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3115,25 +3115,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2886</v>
+        <v>2979</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2635</v>
+        <v>2874</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>15777</v>
+        <v>25067</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2163</v>
+        <v>3464</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>5.47</v>
+        <v>8.41</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>175</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3144,22 +3144,22 @@
         <v>95</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2782</v>
+        <v>2971</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2615</v>
+        <v>2707</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>15945</v>
+        <v>41649</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1692</v>
+        <v>5029</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>5.73</v>
+        <v>14.02</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>202</v>
@@ -3173,25 +3173,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>2745</v>
+        <v>2907</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2518</v>
+        <v>2696</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>17573</v>
+        <v>29638</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1790</v>
+        <v>4024</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>6.4</v>
+        <v>10.2</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3202,25 +3202,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2718</v>
+        <v>2790</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>2588</v>
+        <v>2517</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>22158</v>
+        <v>47873</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1469</v>
+        <v>3717</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>8.15</v>
+        <v>17.16</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3231,25 +3231,25 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>2709</v>
+        <v>2734</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2600</v>
+        <v>2616</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>12330</v>
+        <v>62747</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1549</v>
+        <v>3603</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>4.55</v>
+        <v>22.95</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3260,25 +3260,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>2486</v>
+        <v>2697</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2278</v>
+        <v>2424</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>19212</v>
+        <v>13579</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1562</v>
+        <v>2142</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>7.73</v>
+        <v>5.03</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3289,25 +3289,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>2479</v>
+        <v>2549</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>2326</v>
+        <v>2313</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>15087</v>
+        <v>42192</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1488</v>
+        <v>3370</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>6.09</v>
+        <v>16.55</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3318,25 +3318,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>2435</v>
+        <v>2517</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>2242</v>
+        <v>2299</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>11030</v>
+        <v>33315</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1860</v>
+        <v>5012</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>4.53</v>
+        <v>13.24</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3347,25 +3347,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>2416</v>
+        <v>2512</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>2194</v>
+        <v>2348</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>4760</v>
+        <v>39507</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>802</v>
+        <v>3216</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1.97</v>
+        <v>15.73</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3376,25 +3376,25 @@
         <v>103</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>2282</v>
+        <v>2382</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>2161</v>
+        <v>2242</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>9737</v>
+        <v>30584</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1436</v>
+        <v>4063</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>4.27</v>
+        <v>12.84</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3405,25 +3405,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>2205</v>
+        <v>2339</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>2062</v>
+        <v>2178</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>11206</v>
+        <v>32264</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1803</v>
+        <v>4722</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>5.08</v>
+        <v>13.79</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3437,22 +3437,22 @@
         <v>20</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>2124</v>
+        <v>2216</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1922</v>
+        <v>1985</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>18189</v>
+        <v>36611</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1312</v>
+        <v>3401</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>8.56</v>
+        <v>16.52</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3463,25 +3463,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>2047</v>
+        <v>2127</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1905</v>
+        <v>1956</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>7105</v>
+        <v>19825</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>958</v>
+        <v>2510</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>3.47</v>
+        <v>9.32</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3492,25 +3492,25 @@
         <v>107</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1891</v>
+        <v>2018</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1684</v>
+        <v>1939</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>18203</v>
+        <v>20910</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1408</v>
+        <v>3755</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>9.63</v>
+        <v>10.36</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>370</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3524,22 +3524,22 @@
         <v>20</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1885</v>
+        <v>2002</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1808</v>
+        <v>1742</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>11473</v>
+        <v>15581</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>6.09</v>
+        <v>7.78</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3550,25 +3550,25 @@
         <v>109</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1864</v>
+        <v>1980</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1641</v>
+        <v>1729</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>9634</v>
+        <v>36784</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>677</v>
+        <v>3519</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>5.17</v>
+        <v>18.58</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>128</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3579,25 +3579,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1540</v>
+        <v>1635</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1428</v>
+        <v>1508</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>6404</v>
+        <v>14772</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>609</v>
+        <v>1273</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>4.16</v>
+        <v>9.03</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3608,25 +3608,25 @@
         <v>111</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1538</v>
+        <v>1632</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1459</v>
+        <v>1534</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>6958</v>
+        <v>18826</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>809</v>
+        <v>1878</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>4.52</v>
+        <v>11.54</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3637,25 +3637,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1265</v>
+        <v>1309</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1177</v>
+        <v>1213</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>5235</v>
+        <v>15494</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>505</v>
+        <v>1128</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>4.14</v>
+        <v>11.84</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3666,25 +3666,25 @@
         <v>113</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1199</v>
+        <v>1125</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>9677</v>
+        <v>14698</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>834</v>
+        <v>1887</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>7.66</v>
+        <v>11.32</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3698,22 +3698,22 @@
         <v>30</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>1258</v>
+        <v>1297</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>8302</v>
+        <v>16122</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1074</v>
+        <v>1439</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>6.6</v>
+        <v>12.43</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3727,22 +3727,22 @@
         <v>30</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1247</v>
+        <v>1293</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1178</v>
+        <v>1239</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>5852</v>
+        <v>24259</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>590</v>
+        <v>2513</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>4.69</v>
+        <v>18.76</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3753,25 +3753,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1220</v>
+        <v>1282</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1116</v>
+        <v>1226</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5253</v>
+        <v>16872</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>757</v>
+        <v>2227</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>4.31</v>
+        <v>13.16</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>164</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3785,22 +3785,22 @@
         <v>14</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>10165</v>
+        <v>16599</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>524</v>
+        <v>1085</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>8.76</v>
+        <v>14.19</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3814,22 +3814,22 @@
         <v>20</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>1098</v>
+        <v>1143</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1013</v>
+        <v>1063</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>11185</v>
+        <v>17582</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>424</v>
+        <v>941</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>10.19</v>
+        <v>15.38</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3843,22 +3843,22 @@
         <v>30</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>1093</v>
+        <v>1140</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>7893</v>
+        <v>21703</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1707</v>
+        <v>3065</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>7.22</v>
+        <v>19.04</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3869,25 +3869,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>3316</v>
+        <v>12578</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>363</v>
+        <v>996</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>3.12</v>
+        <v>11.41</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3898,25 +3898,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>950</v>
+        <v>1004</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>5271</v>
+        <v>10048</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>371</v>
+        <v>766</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>4.99</v>
+        <v>9.37</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3927,25 +3927,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1032</v>
+        <v>1057</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>4039</v>
+        <v>12210</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>633</v>
+        <v>1638</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>3.91</v>
+        <v>11.55</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3956,25 +3956,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>4078</v>
+        <v>10969</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>255</v>
+        <v>663</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>4.27</v>
+        <v>11.16</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3985,25 +3985,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3691</v>
+        <v>11542</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>543</v>
+        <v>1294</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>4.21</v>
+        <v>12.73</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4014,25 +4014,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>842</v>
+        <v>892</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>5076</v>
+        <v>14438</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>477</v>
+        <v>1134</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>6.03</v>
+        <v>16.19</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4043,25 +4043,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>8709</v>
+        <v>20631</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>574</v>
+        <v>1169</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>10.37</v>
+        <v>24.59</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4075,22 +4075,22 @@
         <v>30</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2852</v>
+        <v>7547</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>537</v>
+        <v>992</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4104,22 +4104,22 @@
         <v>10</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>761</v>
+        <v>813</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>4273</v>
+        <v>13918</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>563</v>
+        <v>1328</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>5.61</v>
+        <v>17.12</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4130,25 +4130,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>758</v>
+        <v>805</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>708</v>
+        <v>749</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>4778</v>
+        <v>13748</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>393</v>
+        <v>905</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>6.3</v>
+        <v>17.08</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4159,25 +4159,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>5237</v>
+        <v>6800</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>330</v>
+        <v>924</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>7.41</v>
+        <v>8.84</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4188,25 +4188,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>2556</v>
+        <v>7345</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>434</v>
+        <v>924</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>3.65</v>
+        <v>9.99</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4217,25 +4217,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2333</v>
+        <v>10641</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>340</v>
+        <v>631</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>3.37</v>
+        <v>14.68</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4246,25 +4246,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>686</v>
+        <v>724</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2668</v>
+        <v>7336</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>3.89</v>
+        <v>10.13</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>85</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4275,25 +4275,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>2260</v>
+        <v>7271</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>342</v>
+        <v>1049</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>3.32</v>
+        <v>10.13</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4304,25 +4304,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>6114</v>
+        <v>6720</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>356</v>
+        <v>918</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>9.03</v>
+        <v>9.49</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4333,25 +4333,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>6611</v>
+        <v>14164</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>411</v>
+        <v>809</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>9.78</v>
+        <v>20.21</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4362,25 +4362,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2967</v>
+        <v>9516</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>257</v>
+        <v>952</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>4.46</v>
+        <v>13.69</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4394,22 +4394,22 @@
         <v>20</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>6990</v>
+        <v>6337</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>224</v>
+        <v>564</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>11.1</v>
+        <v>9.13</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4420,25 +4420,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>8677</v>
+        <v>6604</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>229</v>
+        <v>733</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>15.01</v>
+        <v>10.57</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4452,22 +4452,22 @@
         <v>10</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2842</v>
+        <v>10166</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>4.96</v>
+        <v>16.72</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4478,25 +4478,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>2182</v>
+        <v>6897</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>298</v>
+        <v>879</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>3.85</v>
+        <v>11.69</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4507,25 +4507,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>2257</v>
+        <v>7022</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>394</v>
+        <v>701</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>4.06</v>
+        <v>12.19</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4536,25 +4536,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>4462</v>
+        <v>9527</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>248</v>
+        <v>511</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>8.36</v>
+        <v>17.58</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4565,25 +4565,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1774</v>
+        <v>4537</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>3.51</v>
+        <v>8.4</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4594,25 +4594,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1720</v>
+        <v>7166</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>172</v>
+        <v>599</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>3.41</v>
+        <v>13.89</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4623,25 +4623,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>442</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2928</v>
+        <v>8912</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>222</v>
+        <v>540</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>5.83</v>
+        <v>17.51</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4652,25 +4652,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3147</v>
+        <v>9039</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>6.6</v>
+        <v>17.9</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4681,25 +4681,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3523</v>
+        <v>4476</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>7.43</v>
+        <v>9.58</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4710,25 +4710,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1490</v>
+        <v>4241</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>300</v>
+        <v>704</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>3.3</v>
+        <v>9.28</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4739,25 +4739,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3841</v>
+        <v>8540</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>8.63</v>
+        <v>19.11</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4768,25 +4768,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2296</v>
+        <v>5947</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>165</v>
+        <v>440</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>5.42</v>
+        <v>13.61</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4797,25 +4797,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>3081</v>
+        <v>6403</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>7.41</v>
+        <v>15.73</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4826,25 +4826,25 @@
         <v>153</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1463</v>
+        <v>4614</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>3.98</v>
+        <v>11.98</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4855,25 +4855,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1903</v>
+        <v>2509</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>5.42</v>
+        <v>6.95</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4887,22 +4887,22 @@
         <v>10</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1746</v>
+        <v>3245</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>183</v>
+        <v>424</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>5.11</v>
+        <v>9.04</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4916,22 +4916,22 @@
         <v>10</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1203</v>
+        <v>4186</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>216</v>
+        <v>392</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>3.54</v>
+        <v>12.13</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4942,25 +4942,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>934</v>
+        <v>4184</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>2.77</v>
+        <v>12.27</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4971,25 +4971,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>3913</v>
+        <v>1893</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>14.99</v>
+        <v>6.44</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -5000,25 +5000,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>7.05</v>
+        <v>6.8</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5029,25 +5029,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>662</v>
+        <v>3316</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>2.63</v>
+        <v>12.8</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5058,22 +5058,22 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1236</v>
+        <v>9727</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>4.9</v>
+        <v>37.56</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>145</v>
@@ -5087,25 +5087,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>602</v>
+        <v>6471</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>2.56</v>
+        <v>25.38</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5116,25 +5116,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>691</v>
+        <v>2611</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>2.98</v>
+        <v>10.53</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5145,25 +5145,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1243</v>
+        <v>1902</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>5.45</v>
+        <v>8.13</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5177,22 +5177,22 @@
         <v>10</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>692</v>
+        <v>2254</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>3.06</v>
+        <v>9.8</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5203,25 +5203,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>940</v>
+        <v>3614</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>4.25</v>
+        <v>15.78</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5232,25 +5232,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1363</v>
+        <v>2942</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>6.4</v>
+        <v>13.75</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5261,25 +5261,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1179</v>
+        <v>3154</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>118</v>
+        <v>497</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>5.75</v>
+        <v>14.81</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5293,22 +5293,22 @@
         <v>24</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>757</v>
+        <v>2176</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>4.25</v>
+        <v>12.16</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5319,25 +5319,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>2196</v>
+        <v>6815</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>12.99</v>
+        <v>39.62</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5348,25 +5348,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>386</v>
+        <v>1917</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>2.34</v>
+        <v>11.15</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5377,25 +5377,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1110</v>
+        <v>957</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>6.85</v>
+        <v>5.66</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5406,25 +5406,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>694</v>
+        <v>3226</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>4.31</v>
+        <v>19.79</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5435,25 +5435,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>814</v>
+        <v>1573</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>5.29</v>
+        <v>9.77</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5464,25 +5464,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>556</v>
+        <v>1967</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>3.71</v>
+        <v>12.61</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5493,25 +5493,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>148</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>485</v>
+        <v>1151</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>3.28</v>
+        <v>7.78</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5528,19 +5528,19 @@
         <v>141</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>916</v>
+        <v>2967</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>6.5</v>
+        <v>21.04</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5551,25 +5551,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>342</v>
+        <v>1815</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2.5</v>
+        <v>12.96</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5580,25 +5580,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>663</v>
+        <v>1089</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>4.95</v>
+        <v>7.89</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5609,25 +5609,25 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>370</v>
+        <v>1107</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>2.85</v>
+        <v>8.26</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5638,25 +5638,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1001</v>
+        <v>2848</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>8.41</v>
+        <v>23.15</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5667,25 +5667,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>479</v>
+        <v>1165</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>4.61</v>
+        <v>9.63</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5696,25 +5696,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>301</v>
+        <v>899</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>3.01</v>
+        <v>8.25</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5728,22 +5728,22 @@
         <v>10</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>643</v>
+        <v>1476</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>6.49</v>
+        <v>14.61</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5754,25 +5754,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>442</v>
+        <v>1423</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>4.65</v>
+        <v>14.37</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5783,25 +5783,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>86</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>221</v>
+        <v>1269</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>2.43</v>
+        <v>13.36</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5812,25 +5812,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E171" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="G171" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="F171" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="G171" s="0" t="n">
-        <v>19</v>
-      </c>
       <c r="H171" s="0" t="n">
-        <v>3.03</v>
+        <v>7.22</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5841,25 +5841,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>455</v>
+        <v>717</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5870,25 +5870,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>449</v>
+        <v>1431</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>5.41</v>
+        <v>16.45</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5899,25 +5899,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>213</v>
+        <v>1727</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>2.7</v>
+        <v>20.08</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5928,25 +5928,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>599</v>
+        <v>710</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>7.78</v>
+        <v>8.55</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5957,25 +5957,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>460</v>
+        <v>1167</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>5.97</v>
+        <v>14.41</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5986,25 +5986,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>237</v>
+        <v>917</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>3.2</v>
+        <v>11.61</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6015,25 +6015,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>288</v>
+        <v>495</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6044,25 +6044,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>319</v>
+        <v>744</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>4.43</v>
+        <v>10.05</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6073,25 +6073,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>230</v>
+        <v>753</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>3.24</v>
+        <v>10.18</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6102,25 +6102,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>230</v>
+        <v>939</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>3.29</v>
+        <v>12.86</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6131,25 +6131,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>453</v>
+        <v>751</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>6.57</v>
+        <v>10.43</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6160,25 +6160,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D183" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E183" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="E183" s="0" t="n">
-        <v>63</v>
-      </c>
       <c r="F183" s="0" t="n">
-        <v>223</v>
+        <v>737</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>3.23</v>
+        <v>10.38</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6189,25 +6189,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>252</v>
+        <v>607</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>3.65</v>
+        <v>8.93</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6218,25 +6218,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>301</v>
+        <v>1012</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>4.43</v>
+        <v>15.57</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6250,22 +6250,22 @@
         <v>24</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>251</v>
+        <v>831</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>3.8</v>
+        <v>12.98</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6276,25 +6276,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>354</v>
+        <v>1104</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>5.36</v>
+        <v>17.25</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6305,25 +6305,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>63</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>7.05</v>
+        <v>7.68</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6334,25 +6334,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>5696</v>
+        <v>1927</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>98.21</v>
+        <v>30.59</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6363,25 +6363,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>169</v>
+        <v>2912</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>3.45</v>
+        <v>52.95</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6401,16 +6401,16 @@
         <v>48</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>224</v>
+        <v>628</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>4.57</v>
+        <v>12.82</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6430,16 +6430,16 @@
         <v>42</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>3.02</v>
+        <v>6.73</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6450,25 +6450,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>3.86</v>
+        <v>7.26</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6479,25 +6479,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>121</v>
+        <v>476</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>3.27</v>
+        <v>12.53</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6511,22 +6511,22 @@
         <v>24</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>1858</v>
+        <v>438</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>53.09</v>
+        <v>12.88</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6540,22 +6540,22 @@
         <v>14</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>12.37</v>
+        <v>13.21</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6569,22 +6569,22 @@
         <v>24</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>87</v>
+        <v>5255</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>2.49</v>
+        <v>159.24</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6595,25 +6595,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D198" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E198" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E198" s="0" t="n">
-        <v>26</v>
-      </c>
       <c r="F198" s="0" t="n">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>5.07</v>
+        <v>7.03</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6624,25 +6624,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>2.15</v>
+        <v>6.45</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6653,25 +6653,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>3.46</v>
+        <v>10.23</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6682,25 +6682,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>6.88</v>
+        <v>4.04</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6711,25 +6711,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>2.23</v>
+        <v>12</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6740,25 +6740,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>6.27</v>
+        <v>8.9</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6769,25 +6769,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>2.43</v>
+        <v>14.43</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6798,25 +6798,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1.8</v>
+        <v>6.24</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6827,22 +6827,22 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>3.74</v>
+        <v>5.2</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>37</v>
@@ -6856,25 +6856,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>5.53</v>
+        <v>14.24</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6888,22 +6888,22 @@
         <v>24</v>
       </c>
       <c r="D208" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E208" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E208" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="F208" s="0" t="n">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>2.25</v>
+        <v>18.29</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6914,7 +6914,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>16</v>
@@ -6923,16 +6923,16 @@
         <v>14</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>1589</v>
+        <v>80</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>99.31</v>
+        <v>5</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6943,7 +6943,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>15</v>
@@ -6952,16 +6952,16 @@
         <v>15</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>47</v>
+        <v>4557</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>3.13</v>
+        <v>303.8</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6972,7 +6972,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>15</v>
@@ -6981,16 +6981,16 @@
         <v>15</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1.07</v>
+        <v>6.53</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -7001,25 +7001,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>147</v>
+        <v>367</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>9.8</v>
+        <v>26.21</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7030,7 +7030,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>13</v>
@@ -7039,16 +7039,16 @@
         <v>13</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>2.38</v>
+        <v>11.54</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7059,25 +7059,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>1.18</v>
+        <v>6.31</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7088,25 +7088,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>4.64</v>
+        <v>12.25</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7117,25 +7117,25 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7146,7 +7146,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>11</v>
@@ -7155,16 +7155,16 @@
         <v>11</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>6.91</v>
+        <v>19.18</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7175,25 +7175,25 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>0.89</v>
+        <v>3.67</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7213,16 +7213,16 @@
         <v>7</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>3.63</v>
+        <v>21.5</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7242,16 +7242,16 @@
         <v>7</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>7.25</v>
+        <v>13.38</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7262,7 +7262,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>7</v>
@@ -7271,16 +7271,16 @@
         <v>7</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>2.57</v>
+        <v>5.29</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7291,25 +7291,25 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7320,25 +7320,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>2.6</v>
+        <v>8.6</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7349,7 +7349,7 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>4</v>
@@ -7358,16 +7358,16 @@
         <v>3</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7378,7 +7378,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>4</v>
@@ -7387,16 +7387,16 @@
         <v>3</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7407,7 +7407,7 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>4</v>
@@ -7416,16 +7416,16 @@
         <v>3</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>1.25</v>
+        <v>21.75</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7445,16 +7445,16 @@
         <v>3</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>0.67</v>
+        <v>4.33</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7474,16 +7474,16 @@
         <v>2</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7494,7 +7494,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
@@ -7503,16 +7503,16 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I229" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="I229" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7523,25 +7523,25 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7558,19 +7558,19 @@
         <v>1</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7581,7 +7581,7 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7610,25 +7610,25 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="234">
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="I234" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
@@ -7677,13 +7677,13 @@
         <v>1</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G235" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H235" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>5</v>
